--- a/src/main/doc/import批量提交课程文件格式.xlsx
+++ b/src/main/doc/import批量提交课程文件格式.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kaoba\kaoba-web\src\main\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16110" windowHeight="3750"/>
   </bookViews>
@@ -12,7 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A4:N15"/>
 </workbook>
 </file>
 
@@ -61,6 +65,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -108,74 +113,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -195,7 +132,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -474,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -490,7 +427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -498,7 +435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -506,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -514,28 +451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>12121</v>
-      </c>
-      <c r="B6">
-        <v>12122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
